--- a/biology/Médecine/Loi_relative_à_la_gestion_de_la_crise_sanitaire/Loi_relative_à_la_gestion_de_la_crise_sanitaire.xlsx
+++ b/biology/Médecine/Loi_relative_à_la_gestion_de_la_crise_sanitaire/Loi_relative_à_la_gestion_de_la_crise_sanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loi_relative_%C3%A0_la_gestion_de_la_crise_sanitaire</t>
+          <t>Loi_relative_à_la_gestion_de_la_crise_sanitaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La loi du 5 août 2021 relative à la gestion de la crise sanitaire, dite « loi sur l'extension du passe sanitaire », est une des lois adoptées en France pour ralentir la pandémie de Covid-19[1].
-Faisant suite aux annonces du président de la République le 12 juillet 2021, le projet de loi est adopté par le Parlement après cinq jours de discussions. Le 5 août, le Conseil constitutionnel rend sa décision[2] et la loi est promulguée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loi du 5 août 2021 relative à la gestion de la crise sanitaire, dite « loi sur l'extension du passe sanitaire », est une des lois adoptées en France pour ralentir la pandémie de Covid-19.
+Faisant suite aux annonces du président de la République le 12 juillet 2021, le projet de loi est adopté par le Parlement après cinq jours de discussions. Le 5 août, le Conseil constitutionnel rend sa décision et la loi est promulguée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loi_relative_%C3%A0_la_gestion_de_la_crise_sanitaire</t>
+          <t>Loi_relative_à_la_gestion_de_la_crise_sanitaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,15 +521,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vote</t>
+          <t>Contenu</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Assemblée nationale (1re lecture)
-Sénat (1re lecture)
-Assemblée nationale (texte de la commission mixte paritaire)
-Sénat (texte de la commission mixte paritaire)</t>
+          <t>Chapitre Ier : Dispositions générales (articles 1 à 11)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Article 1 :
+régime de sortie de l'état d'urgence sanitaire prorogé jusqu'au 15 novembre 2021 (la date de fin était avant fixée au 30 septembre) ;
+extension du passe sanitaire ;
+Article 3 : aucune justification de motif impérieux ne peut être exigée d'un Français pour entrer sur le territoire français ;
+Article 9 : dispositions déclarées non conformes à la Constitution : le texte adopté par le Parlement prévoyait une obligation d'isolement pour les personnes faisant l'objet d'un test positif à la Covid-19.</t>
         </is>
       </c>
     </row>
@@ -527,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loi_relative_%C3%A0_la_gestion_de_la_crise_sanitaire</t>
+          <t>Loi_relative_à_la_gestion_de_la_crise_sanitaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,19 +566,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chapitre Ier : Dispositions générales (articles 1 à 11)
-Article 1 :
-régime de sortie de l'état d'urgence sanitaire prorogé jusqu'au 15 novembre 2021 (la date de fin était avant fixée au 30 septembre) ;
-extension du passe sanitaire ;
-Article 3 : aucune justification de motif impérieux ne peut être exigée d'un Français pour entrer sur le territoire français ;
-Article 9 : dispositions déclarées non conformes à la Constitution : le texte adopté par le Parlement prévoyait une obligation d'isolement pour les personnes faisant l'objet d'un test positif à la Covid-19[7].
-Chapitre II : Vaccination obligatoire (articles 12 à 19)
-Article 12 : liste des personnes concernées ;
+          <t>Chapitre II : Vaccination obligatoire (articles 12 à 19)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Article 12 : liste des personnes concernées ;
 Article 14 : interdiction d'activités pour les personnes non vaccinées et suspension du contrat de travail ;
 Article 16 : sanctions ;
-Article 17 : autorisation d'absence pour se rendre aux rendez-vous médicaux liés aux vaccinations contre la Covid-19.
-Chapitre III : Dispositions diverses (articles 20 à 21)
-Article 21 : contrôle parlementaire.</t>
+Article 17 : autorisation d'absence pour se rendre aux rendez-vous médicaux liés aux vaccinations contre la Covid-19.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Loi_relative_à_la_gestion_de_la_crise_sanitaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_relative_%C3%A0_la_gestion_de_la_crise_sanitaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chapitre III : Dispositions diverses (articles 20 à 21)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Article 21 : contrôle parlementaire.</t>
         </is>
       </c>
     </row>
